--- a/data/trans_orig/IP07C11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{406B60D2-6919-405B-A9F3-A4D844CECFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F288EF-E458-44F1-AA43-4C879D02B830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9969F3C3-BC51-4379-A319-A797F0181F08}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B5FFFA0A-D7D9-422D-BD61-D17DC249AB20}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,159 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>4,42%</t>
   </si>
   <si>
@@ -118,27 +250,6 @@
     <t>5,87%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
     <t>32,13%</t>
   </si>
   <si>
@@ -166,12 +277,6 @@
     <t>37,22%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>63,44%</t>
   </si>
   <si>
@@ -199,109 +304,28 @@
     <t>65,27%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>3,97%</t>
@@ -325,24 +349,6 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>30,98%</t>
   </si>
   <si>
@@ -370,12 +376,6 @@
     <t>35,3%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>65,06%</t>
   </si>
   <si>
@@ -406,6 +406,117 @@
     <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
     <t>3,36%</t>
   </si>
   <si>
@@ -433,24 +544,6 @@
     <t>4,81%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>30,38%</t>
   </si>
   <si>
@@ -478,12 +571,6 @@
     <t>35,53%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
     <t>66,04%</t>
   </si>
   <si>
@@ -511,91 +598,22 @@
     <t>68,18%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>3,4%</t>
@@ -625,18 +643,6 @@
     <t>4,36%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
     <t>30,51%</t>
   </si>
   <si>
@@ -661,12 +667,6 @@
     <t>28,93%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>65,92%</t>
   </si>
   <si>
@@ -697,6 +697,129 @@
     <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 45,72%)</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>3,94%</t>
   </si>
   <si>
@@ -724,18 +847,6 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
     <t>28,36%</t>
   </si>
   <si>
@@ -760,18 +871,6 @@
     <t>36,76%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>62,73%</t>
   </si>
   <si>
@@ -799,103 +898,31 @@
     <t>64,88%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>4,03%</t>
@@ -919,24 +946,6 @@
     <t>6,54%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>31,09%</t>
   </si>
   <si>
@@ -962,15 +971,6 @@
   </si>
   <si>
     <t>34,07%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
   </si>
   <si>
     <t>64,66%</t>
@@ -1389,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD4058A-18E4-402E-A3EF-1A0D26DE4B7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EDFE43-D74E-4DF5-A80E-A1E37D2BB1B2}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1779,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>11082</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1794,34 +1794,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>9904</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>31</v>
-      </c>
-      <c r="N10" s="7">
-        <v>20986</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,43 +1836,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1387</v>
+        <v>1306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1387</v>
+        <v>1306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,49 +1881,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>80500</v>
+        <v>1197</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1967</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3163</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="7">
-        <v>126</v>
-      </c>
-      <c r="I12" s="7">
-        <v>84829</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="7">
-        <v>249</v>
-      </c>
-      <c r="N12" s="7">
-        <v>165329</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,49 +1932,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>15399</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>12834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="7">
         <v>42</v>
       </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>28233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,49 +1983,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>158929</v>
+        <v>42473</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>49</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32776</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="7">
-        <v>216</v>
-      </c>
-      <c r="I14" s="7">
-        <v>145643</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>114</v>
+      </c>
+      <c r="N14" s="7">
+        <v>75249</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="7">
-        <v>453</v>
-      </c>
-      <c r="N14" s="7">
-        <v>304571</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,102 +2034,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>250510</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>735</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>492273</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1197</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1967</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3163</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,43 +2144,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1306</v>
+        <v>1387</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1306</v>
+        <v>1387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,49 +2189,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>15399</v>
+        <v>11082</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="7">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7">
+        <v>9904</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="7">
+        <v>31</v>
+      </c>
+      <c r="N18" s="7">
+        <v>20986</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="7">
-        <v>19</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12834</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="7">
-        <v>42</v>
-      </c>
-      <c r="N18" s="7">
-        <v>28233</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,46 +2240,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>80500</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>84829</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="7">
+        <v>249</v>
+      </c>
+      <c r="N19" s="7">
+        <v>165329</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>78</v>
@@ -2291,10 +2291,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="D20" s="7">
-        <v>42473</v>
+        <v>158929</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>79</v>
@@ -2306,10 +2306,10 @@
         <v>81</v>
       </c>
       <c r="H20" s="7">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="I20" s="7">
-        <v>32776</v>
+        <v>145643</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>82</v>
@@ -2321,10 +2321,10 @@
         <v>84</v>
       </c>
       <c r="M20" s="7">
-        <v>114</v>
+        <v>453</v>
       </c>
       <c r="N20" s="7">
-        <v>75249</v>
+        <v>304571</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>85</v>
@@ -2342,49 +2342,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>250510</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>735</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>492273</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,49 +2395,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="7">
-        <v>12278</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H22" s="7">
-        <v>18</v>
-      </c>
-      <c r="I22" s="7">
-        <v>11871</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="7">
-        <v>36</v>
-      </c>
-      <c r="N22" s="7">
-        <v>24150</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2467,13 +2467,13 @@
         <v>2693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2482,13 +2482,13 @@
         <v>2693</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,49 +2497,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>95899</v>
+        <v>12278</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="7">
+        <v>18</v>
+      </c>
+      <c r="I24" s="7">
+        <v>11871</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>36</v>
+      </c>
+      <c r="N24" s="7">
+        <v>24150</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="7">
-        <v>145</v>
-      </c>
-      <c r="I24" s="7">
-        <v>97663</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="7">
-        <v>291</v>
-      </c>
-      <c r="N24" s="7">
-        <v>193561</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,46 +2548,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>95899</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>97663</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="7">
+        <v>291</v>
+      </c>
+      <c r="N25" s="7">
+        <v>193561</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>111</v>
@@ -2656,13 +2656,13 @@
         <v>309578</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>432</v>
@@ -2671,13 +2671,13 @@
         <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>898</v>
@@ -2686,13 +2686,13 @@
         <v>600224</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535FF3CD-0F8A-4035-B75D-C042799C6A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287A7911-92AB-49DB-B8C5-B2C9BE49EBAA}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,49 +3101,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>8724</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7690</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M10" s="7">
-        <v>24</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16414</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3152,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1189</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3203,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>78954</v>
+        <v>2348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H12" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>80249</v>
+        <v>722</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M12" s="7">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>159202</v>
+        <v>3069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3254,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>20527</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>23034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>43561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,49 +3305,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>171646</v>
+        <v>43299</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="7">
+        <v>65</v>
+      </c>
+      <c r="I14" s="7">
+        <v>45613</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="7">
+        <v>125</v>
+      </c>
+      <c r="N14" s="7">
+        <v>88912</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H14" s="7">
-        <v>218</v>
-      </c>
-      <c r="I14" s="7">
-        <v>154258</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M14" s="7">
-        <v>472</v>
-      </c>
-      <c r="N14" s="7">
-        <v>325905</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,102 +3356,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>259904</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>242806</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>728</v>
+        <v>190</v>
       </c>
       <c r="N15" s="7">
-        <v>502710</v>
+        <v>135542</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>2348</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>3069</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3460,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3511,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>20527</v>
+        <v>8724</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H18" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>23034</v>
+        <v>7690</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M18" s="7">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="N18" s="7">
-        <v>43561</v>
+        <v>16414</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,49 +3562,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>78954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>80249</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>159202</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,10 +3613,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="D20" s="7">
-        <v>43299</v>
+        <v>171646</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>177</v>
@@ -3628,10 +3628,10 @@
         <v>179</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="I20" s="7">
-        <v>45613</v>
+        <v>154258</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>180</v>
@@ -3643,10 +3643,10 @@
         <v>182</v>
       </c>
       <c r="M20" s="7">
-        <v>125</v>
+        <v>472</v>
       </c>
       <c r="N20" s="7">
-        <v>88912</v>
+        <v>325905</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>183</v>
@@ -3664,49 +3664,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>259904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>242806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>190</v>
+        <v>728</v>
       </c>
       <c r="N21" s="7">
-        <v>135542</v>
+        <v>502710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,49 +3717,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>11071</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" s="7">
-        <v>12</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8411</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="M22" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>19483</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3774,13 @@
         <v>580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3789,13 +3789,13 @@
         <v>609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3804,13 +3804,13 @@
         <v>1189</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,49 +3819,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>99481</v>
+        <v>11071</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8411</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" s="7">
+        <v>28</v>
+      </c>
+      <c r="N24" s="7">
+        <v>19483</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H24" s="7">
-        <v>148</v>
-      </c>
-      <c r="I24" s="7">
-        <v>103282</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M24" s="7">
-        <v>291</v>
-      </c>
-      <c r="N24" s="7">
-        <v>202763</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,49 +3870,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>99481</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="7">
+        <v>148</v>
+      </c>
+      <c r="I25" s="7">
+        <v>103282</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" s="7">
+        <v>291</v>
+      </c>
+      <c r="N25" s="7">
+        <v>202763</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3978,13 @@
         <v>326078</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>444</v>
@@ -3993,13 +3993,13 @@
         <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>918</v>
@@ -4008,13 +4008,13 @@
         <v>638252</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC33B424-DAC5-4900-96AE-2DE2A572BA6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6F0F-788C-47CB-9303-7BA2938A4D25}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,49 +4423,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>10764</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="H10" s="7">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17172</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M10" s="7">
-        <v>40</v>
-      </c>
-      <c r="N10" s="7">
-        <v>27936</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,49 +4474,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>792</v>
+        <v>564</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1551</v>
+        <v>564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,49 +4525,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>90343</v>
+        <v>3310</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2637</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5948</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="H12" s="7">
-        <v>121</v>
-      </c>
-      <c r="I12" s="7">
-        <v>86651</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M12" s="7">
-        <v>244</v>
-      </c>
-      <c r="N12" s="7">
-        <v>176994</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,49 +4576,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>18233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="7">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7">
+        <v>21418</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M13" s="7">
+        <v>59</v>
+      </c>
+      <c r="N13" s="7">
+        <v>39651</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>617</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>617</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,49 +4627,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7">
-        <v>171471</v>
+        <v>54322</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>94</v>
+      </c>
+      <c r="I14" s="7">
+        <v>62436</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="7">
-        <v>213</v>
-      </c>
-      <c r="I14" s="7">
-        <v>152744</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>172</v>
+      </c>
+      <c r="N14" s="7">
+        <v>116758</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M14" s="7">
-        <v>444</v>
-      </c>
-      <c r="N14" s="7">
-        <v>324215</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,102 +4678,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>257977</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>731</v>
+        <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>531314</v>
+        <v>162921</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3310</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>617</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>617</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2637</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5948</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,49 +4782,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>564</v>
+        <v>792</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>564</v>
+        <v>1551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,49 +4833,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>18233</v>
+        <v>10764</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="7">
+        <v>25</v>
+      </c>
+      <c r="I18" s="7">
+        <v>17172</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M18" s="7">
+        <v>40</v>
+      </c>
+      <c r="N18" s="7">
+        <v>27936</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21418</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M18" s="7">
-        <v>59</v>
-      </c>
-      <c r="N18" s="7">
-        <v>39651</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,46 +4884,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>90343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>86651</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M19" s="7">
+        <v>244</v>
+      </c>
+      <c r="N19" s="7">
+        <v>176994</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>276</v>
@@ -4935,10 +4935,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="D20" s="7">
-        <v>54322</v>
+        <v>171471</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>277</v>
@@ -4950,10 +4950,10 @@
         <v>279</v>
       </c>
       <c r="H20" s="7">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="I20" s="7">
-        <v>62436</v>
+        <v>152744</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>280</v>
@@ -4965,10 +4965,10 @@
         <v>282</v>
       </c>
       <c r="M20" s="7">
-        <v>172</v>
+        <v>444</v>
       </c>
       <c r="N20" s="7">
-        <v>116758</v>
+        <v>324215</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>283</v>
@@ -4986,49 +4986,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>257977</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>241</v>
+        <v>731</v>
       </c>
       <c r="N21" s="7">
-        <v>162921</v>
+        <v>531314</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,49 +5039,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>14074</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>617</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>617</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="7">
-        <v>29</v>
-      </c>
-      <c r="I22" s="7">
-        <v>19809</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M22" s="7">
-        <v>49</v>
-      </c>
-      <c r="N22" s="7">
-        <v>33884</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5096,13 @@
         <v>759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5111,13 +5111,13 @@
         <v>1356</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -5126,13 +5126,13 @@
         <v>2115</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,49 +5141,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>108576</v>
+        <v>14074</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="7">
+        <v>29</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19809</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M24" s="7">
+        <v>49</v>
+      </c>
+      <c r="N24" s="7">
+        <v>33884</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="H24" s="7">
-        <v>153</v>
-      </c>
-      <c r="I24" s="7">
-        <v>108069</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M24" s="7">
-        <v>303</v>
-      </c>
-      <c r="N24" s="7">
-        <v>216645</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,46 +5192,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>108576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="I25" s="7">
-        <v>617</v>
+        <v>108069</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>26</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M25" s="7">
+        <v>303</v>
+      </c>
+      <c r="N25" s="7">
+        <v>216645</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>617</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>310</v>
@@ -5300,13 +5300,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>492</v>
@@ -5315,13 +5315,13 @@
         <v>345032</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>972</v>
@@ -5330,13 +5330,13 @@
         <v>694235</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F288EF-E458-44F1-AA43-4C879D02B830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{525A6477-5EAE-406C-A096-90BC1951BE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B5FFFA0A-D7D9-422D-BD61-D17DC249AB20}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98F7BFB4-22A0-4DD4-8E9D-44BE221E6A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="317">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -67,28 +67,112 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -97,907 +181,814 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +999,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1104,39 +1095,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1188,7 +1179,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1299,13 +1290,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1314,6 +1298,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1378,19 +1369,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EDFE43-D74E-4DF5-A80E-A1E37D2BB1B2}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C2D1FF-F355-423C-887B-210B3E4FD431}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1781,47 +1792,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,47 +1837,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,49 +1880,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,49 +1925,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7">
-        <v>15399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
-      </c>
-      <c r="N13" s="7">
-        <v>28233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,49 +1970,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>65</v>
-      </c>
-      <c r="D14" s="7">
-        <v>42473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
-      </c>
-      <c r="I14" s="7">
-        <v>32776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>114</v>
-      </c>
-      <c r="N14" s="7">
-        <v>75249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,102 +2015,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>82805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>79659</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>162464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,49 +2113,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>38156</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>1387</v>
+        <v>26738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="N17" s="7">
-        <v>1387</v>
+        <v>64895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,49 +2164,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>11082</v>
+        <v>2519</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>9904</v>
+        <v>2621</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>20986</v>
+        <v>5140</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,49 +2215,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>80500</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>84829</v>
+        <v>2693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>165329</v>
+        <v>2693</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,49 +2266,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>158929</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>145643</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>304571</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,102 +2317,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>250510</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>735</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>492273</v>
+        <v>235192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>118596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>98760</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>217356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,49 +2421,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>57742</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="I23" s="7">
-        <v>2693</v>
+        <v>70924</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="N23" s="7">
-        <v>2693</v>
+        <v>128667</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,49 +2472,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>12278</v>
+        <v>9759</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H24" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>11871</v>
+        <v>9251</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="M24" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N24" s="7">
-        <v>24150</v>
+        <v>19010</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,49 +2523,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>95899</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H25" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>97663</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="M25" s="7">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>193561</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,49 +2574,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>201401</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="H26" s="7">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>178419</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="M26" s="7">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>379820</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,55 +2625,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="7">
+        <v>544</v>
+      </c>
+      <c r="N27" s="7">
+        <v>365032</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>302</v>
+      </c>
+      <c r="D28" s="7">
+        <v>201401</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="7">
+        <v>265</v>
+      </c>
+      <c r="I28" s="7">
+        <v>178419</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="7">
+        <v>567</v>
+      </c>
+      <c r="N28" s="7">
+        <v>379820</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>146</v>
+      </c>
+      <c r="D29" s="7">
+        <v>95899</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="7">
+        <v>145</v>
+      </c>
+      <c r="I29" s="7">
+        <v>97663</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" s="7">
+        <v>291</v>
+      </c>
+      <c r="N29" s="7">
+        <v>193561</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12278</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="7">
+        <v>18</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11871</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M30" s="7">
+        <v>36</v>
+      </c>
+      <c r="N30" s="7">
+        <v>24150</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2693</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2693</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>309578</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="7">
         <v>432</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290646</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="7">
         <v>898</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>600224</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2711,8 +3000,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287A7911-92AB-49DB-B8C5-B2C9BE49EBAA}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1212BB-491C-416B-B1AD-73AA73044380}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2728,7 +3017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3103,47 +3392,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,47 +3437,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3480,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3525,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7">
-        <v>20527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>23034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,49 +3570,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>60</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>65</v>
-      </c>
-      <c r="I14" s="7">
-        <v>45613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>125</v>
-      </c>
-      <c r="N14" s="7">
-        <v>88912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,102 +3615,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>190</v>
-      </c>
-      <c r="N15" s="7">
-        <v>135542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>101425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="7">
         <v>151</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>105467</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>206892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3713,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>580</v>
+        <v>48381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>609</v>
+        <v>41168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="N17" s="7">
-        <v>1189</v>
+        <v>89549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3764,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>8724</v>
+        <v>5621</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>7690</v>
+        <v>2721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>16414</v>
+        <v>8342</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,49 +3815,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>78954</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>80249</v>
+        <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>159202</v>
+        <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3866,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>171646</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>154258</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>325905</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,102 +3917,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>259904</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>242806</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>728</v>
+        <v>437</v>
       </c>
       <c r="N21" s="7">
-        <v>502710</v>
+        <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>113521</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>94404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>207925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,49 +4021,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D23" s="7">
-        <v>580</v>
+        <v>51100</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I23" s="7">
-        <v>609</v>
+        <v>62114</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="N23" s="7">
-        <v>1189</v>
+        <v>113215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,49 +4072,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5450</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5690</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" s="7">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
-        <v>11071</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="7">
-        <v>12</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8411</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M24" s="7">
-        <v>28</v>
-      </c>
       <c r="N24" s="7">
-        <v>19483</v>
+        <v>11141</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,49 +4123,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>99481</v>
+        <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>103282</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>202763</v>
+        <v>580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,49 +4174,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>214946</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>199871</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>414817</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,55 +4225,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
+        <v>230</v>
+      </c>
+      <c r="I27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="7">
+        <v>481</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332861</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>314</v>
+      </c>
+      <c r="D28" s="7">
+        <v>214946</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="7">
+        <v>283</v>
+      </c>
+      <c r="I28" s="7">
+        <v>199871</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" s="7">
+        <v>597</v>
+      </c>
+      <c r="N28" s="7">
+        <v>414817</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>143</v>
+      </c>
+      <c r="D29" s="7">
+        <v>99481</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="7">
+        <v>148</v>
+      </c>
+      <c r="I29" s="7">
+        <v>103282</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M29" s="7">
+        <v>291</v>
+      </c>
+      <c r="N29" s="7">
+        <v>202763</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>16</v>
+      </c>
+      <c r="D30" s="7">
+        <v>11071</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="7">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7">
+        <v>8411</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M30" s="7">
+        <v>28</v>
+      </c>
+      <c r="N30" s="7">
+        <v>19483</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>580</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>609</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="7">
+        <v>2</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1189</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>326078</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="7">
         <v>444</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>312174</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="7">
         <v>918</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>638252</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4033,8 +4600,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6F0F-788C-47CB-9303-7BA2938A4D25}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3987FCB2-2E71-4A74-A2CC-F30979A1B483}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4050,7 +4617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4425,47 +4992,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,47 +5037,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,49 +5080,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5948</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,49 +5125,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7">
-        <v>18233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
-      </c>
-      <c r="N13" s="7">
-        <v>39651</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,49 +5170,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>78</v>
-      </c>
-      <c r="D14" s="7">
-        <v>54322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>94</v>
-      </c>
-      <c r="I14" s="7">
-        <v>62436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>172</v>
-      </c>
-      <c r="N14" s="7">
-        <v>116758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,102 +5215,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>241</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>126225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="I16" s="7">
-        <v>617</v>
+        <v>130746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>364</v>
       </c>
       <c r="N16" s="7">
-        <v>617</v>
+        <v>256971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,49 +5313,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7">
-        <v>759</v>
+        <v>45399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I17" s="7">
-        <v>792</v>
+        <v>44055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="N17" s="7">
-        <v>1551</v>
+        <v>89453</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,49 +5364,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>10764</v>
+        <v>6228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>17172</v>
+        <v>4860</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="M18" s="7">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>27936</v>
+        <v>11088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,49 +5415,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>90343</v>
+        <v>759</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>86651</v>
+        <v>564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
-        <v>244</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>176994</v>
+        <v>1323</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,49 +5466,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>171471</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>152744</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>324215</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,102 +5517,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>361</v>
+        <v>258</v>
       </c>
       <c r="I21" s="7">
-        <v>257977</v>
+        <v>180225</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>731</v>
+        <v>508</v>
       </c>
       <c r="N21" s="7">
-        <v>531314</v>
+        <v>358836</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>99568</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I22" s="7">
-        <v>617</v>
+        <v>84434</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="N22" s="7">
-        <v>617</v>
+        <v>184002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,49 +5621,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7">
-        <v>759</v>
+        <v>63177</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="I23" s="7">
-        <v>1356</v>
+        <v>64014</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="N23" s="7">
-        <v>2115</v>
+        <v>127192</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>293</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,49 +5672,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>14074</v>
+        <v>7846</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="H24" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>19809</v>
+        <v>14949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="M24" s="7">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N24" s="7">
-        <v>33884</v>
+        <v>22796</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,49 +5723,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>108576</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>108069</v>
+        <v>792</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>216645</v>
+        <v>792</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,49 +5774,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>225793</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
-        <v>307</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>215180</v>
+        <v>617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
-        <v>616</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>440974</v>
+        <v>617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,55 +5825,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>309</v>
+      </c>
+      <c r="D28" s="7">
+        <v>225793</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H28" s="7">
+        <v>307</v>
+      </c>
+      <c r="I28" s="7">
+        <v>215180</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M28" s="7">
+        <v>616</v>
+      </c>
+      <c r="N28" s="7">
+        <v>440973</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>150</v>
+      </c>
+      <c r="D29" s="7">
+        <v>108576</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H29" s="7">
+        <v>153</v>
+      </c>
+      <c r="I29" s="7">
+        <v>108069</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M29" s="7">
+        <v>303</v>
+      </c>
+      <c r="N29" s="7">
+        <v>216645</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7">
+        <v>14074</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H30" s="7">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19809</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M30" s="7">
+        <v>49</v>
+      </c>
+      <c r="N30" s="7">
+        <v>33884</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1356</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2115</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>617</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>617</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="7">
         <v>492</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345032</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="7">
         <v>972</v>
       </c>
-      <c r="N27" s="7">
-        <v>694235</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="N33" s="7">
+        <v>694234</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{525A6477-5EAE-406C-A096-90BC1951BE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E2B6F5-83B9-4F10-95A7-4313FA85EA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98F7BFB4-22A0-4DD4-8E9D-44BE221E6A1D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62062FED-676A-44B0-89C6-9C2C530A8986}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="320">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -97,55 +97,55 @@
     <t>67,06%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -154,7 +154,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>4,75%</t>
   </si>
   <si>
     <t>2,35%</t>
@@ -163,16 +163,16 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>5,89%</t>
+    <t>5,77%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -187,19 +187,19 @@
     <t>2,41%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -214,580 +214,592 @@
     <t>63,73%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
   </si>
   <si>
     <t>55,19%</t>
   </si>
   <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
   </si>
   <si>
     <t>59,54%</t>
   </si>
   <si>
-    <t>55,52%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>33,08%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>5,59%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 45,72%)</t>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 45,72%)</t>
   </si>
   <si>
     <t>70,67%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>71,61%</t>
   </si>
   <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>24,44%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,11%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -799,148 +811,136 @@
     <t>58,37%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
   </si>
   <si>
     <t>54,86%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>37,03%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>43,46%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>64,66%</t>
   </si>
   <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>62,37%</t>
   </si>
   <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>63,52%</t>
   </si>
   <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>27,04%</t>
   </si>
   <si>
     <t>31,21%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>28,43%</t>
   </si>
   <si>
     <t>4,03%</t>
@@ -949,13 +949,16 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>5,84%</t>
+    <t>6,0%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>4,88%</t>
@@ -964,31 +967,37 @@
     <t>3,61%</t>
   </si>
   <si>
-    <t>6,37%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>1,34%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C2D1FF-F355-423C-887B-210B3E4FD431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B35A2E3-FDB6-4020-AD28-357BB86612F6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2741,7 +2750,7 @@
         <v>97</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>145</v>
@@ -2750,13 +2759,13 @@
         <v>97663</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -2765,13 +2774,13 @@
         <v>193561</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2795,13 @@
         <v>12278</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -2801,13 +2810,13 @@
         <v>11871</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -2816,13 +2825,13 @@
         <v>24150</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2852,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2852,13 +2861,13 @@
         <v>2693</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2867,13 +2876,13 @@
         <v>2693</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2903,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2909,7 +2918,7 @@
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2924,7 +2933,7 @@
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,7 +2989,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3000,7 +3009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1212BB-491C-416B-B1AD-73AA73044380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A81C17-F45D-4B10-BFB3-A6171CA1754B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3017,7 +3026,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3668,13 +3677,13 @@
         <v>101425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>151</v>
@@ -3683,13 +3692,13 @@
         <v>105467</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>298</v>
@@ -3698,13 +3707,13 @@
         <v>206892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3728,13 @@
         <v>48381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -3734,13 +3743,13 @@
         <v>41168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -3749,13 +3758,13 @@
         <v>89549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3779,13 @@
         <v>5621</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -3785,13 +3794,13 @@
         <v>2721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3800,13 +3809,13 @@
         <v>8342</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,7 +3836,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3836,13 +3845,13 @@
         <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3851,13 +3860,13 @@
         <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3887,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3893,7 +3902,7 @@
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3908,7 +3917,7 @@
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3985,13 @@
         <v>113521</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -3991,13 +4000,13 @@
         <v>94404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>299</v>
@@ -4006,13 +4015,13 @@
         <v>207925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4036,13 @@
         <v>51100</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -4042,13 +4051,13 @@
         <v>62114</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>165</v>
@@ -4057,13 +4066,13 @@
         <v>113215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4087,13 @@
         <v>5450</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -4093,13 +4102,13 @@
         <v>5690</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4108,13 +4117,13 @@
         <v>11141</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4138,13 @@
         <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4150,7 +4159,7 @@
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -4159,13 +4168,13 @@
         <v>580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4195,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4201,7 +4210,7 @@
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4216,7 +4225,7 @@
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4293,13 @@
         <v>214946</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>283</v>
@@ -4299,13 +4308,13 @@
         <v>199871</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>597</v>
@@ -4314,13 +4323,13 @@
         <v>414817</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4344,13 @@
         <v>99481</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>148</v>
@@ -4350,13 +4359,13 @@
         <v>103282</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -4365,13 +4374,13 @@
         <v>202763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4395,13 @@
         <v>11071</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -4401,13 +4410,13 @@
         <v>8411</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -4416,13 +4425,13 @@
         <v>19483</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4446,13 @@
         <v>580</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -4452,13 +4461,13 @@
         <v>609</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -4467,13 +4476,13 @@
         <v>1189</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,7 +4503,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4509,7 +4518,7 @@
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4524,7 +4533,7 @@
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,7 +4589,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4600,7 +4609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3987FCB2-2E71-4A74-A2CC-F30979A1B483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6741E921-266D-48C1-82C4-1B42899BFE9E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4617,7 +4626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5268,13 +5277,13 @@
         <v>126225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
@@ -5283,13 +5292,13 @@
         <v>130746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>364</v>
@@ -5298,13 +5307,13 @@
         <v>256971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,28 +5328,28 @@
         <v>45399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
       </c>
       <c r="I17" s="7">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -5349,13 +5358,13 @@
         <v>89453</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5379,13 @@
         <v>6228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -5385,13 +5394,13 @@
         <v>4860</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -5400,13 +5409,13 @@
         <v>11088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5430,13 @@
         <v>759</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5436,13 +5445,13 @@
         <v>564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5451,13 +5460,13 @@
         <v>1323</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,7 +5487,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5493,7 +5502,7 @@
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5508,7 +5517,7 @@
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,7 +5544,7 @@
         <v>258</v>
       </c>
       <c r="I21" s="7">
-        <v>180225</v>
+        <v>180224</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>55</v>
@@ -5576,13 +5585,13 @@
         <v>99568</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>119</v>
@@ -5591,13 +5600,13 @@
         <v>84434</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>252</v>
@@ -5606,13 +5615,13 @@
         <v>184002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5636,13 @@
         <v>63177</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
@@ -5642,13 +5651,13 @@
         <v>64014</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>177</v>
@@ -5657,13 +5666,13 @@
         <v>127192</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5687,13 @@
         <v>7846</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -5693,13 +5702,13 @@
         <v>14949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -5708,13 +5717,13 @@
         <v>22796</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,7 +5744,7 @@
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5744,13 +5753,13 @@
         <v>792</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -5759,13 +5768,13 @@
         <v>792</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,7 +5795,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5795,13 +5804,13 @@
         <v>617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5810,13 +5819,13 @@
         <v>617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5893,13 @@
         <v>225793</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>307</v>
@@ -5899,28 +5908,28 @@
         <v>215180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M28" s="7">
         <v>616</v>
       </c>
       <c r="N28" s="7">
-        <v>440973</v>
+        <v>440974</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5944,13 @@
         <v>108576</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H29" s="7">
         <v>153</v>
@@ -5950,13 +5959,13 @@
         <v>108069</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="M29" s="7">
         <v>303</v>
@@ -5965,13 +5974,13 @@
         <v>216645</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,10 +6013,10 @@
         <v>304</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M30" s="7">
         <v>49</v>
@@ -6016,13 +6025,13 @@
         <v>33884</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6046,13 @@
         <v>759</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -6052,13 +6061,13 @@
         <v>1356</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -6067,13 +6076,13 @@
         <v>2115</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6103,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6103,13 +6112,13 @@
         <v>617</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6118,13 +6127,13 @@
         <v>617</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>117</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,7 +6175,7 @@
         <v>972</v>
       </c>
       <c r="N33" s="7">
-        <v>694234</v>
+        <v>694235</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>55</v>
@@ -6180,7 +6189,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E2B6F5-83B9-4F10-95A7-4313FA85EA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16780478-AFA3-4F14-8362-27FD230D9EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62062FED-676A-44B0-89C6-9C2C530A8986}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98E14EB9-BB81-46F6-8198-69C2AE43939F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="317">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,265 +94,274 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
     <t>63,73%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>59,54%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
   </si>
   <si>
     <t>31,03%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>35,25%</t>
   </si>
   <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>0,35%</t>
   </si>
   <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
     <t>65,06%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
   </si>
   <si>
     <t>63,28%</t>
   </si>
   <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>3,97%</t>
@@ -361,46 +370,34 @@
     <t>2,45%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>6,05%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>0,11%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -415,571 +412,568 @@
     <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
   </si>
   <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
     <t>65,26%</t>
   </si>
   <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -988,16 +982,13 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,49%</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B35A2E3-FDB6-4020-AD28-357BB86612F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80711408-43C3-49C4-ADB2-E70923C3B7E6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2071,10 +2062,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7">
-        <v>82805</v>
+        <v>79659</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2086,10 +2077,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I16" s="7">
-        <v>79659</v>
+        <v>82805</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2122,10 +2113,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>38156</v>
+        <v>26738</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2137,10 +2128,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>26738</v>
+        <v>38156</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2176,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2519</v>
+        <v>2621</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2191,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2621</v>
+        <v>2519</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2224,34 +2215,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>2693</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2693</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2260,13 +2251,13 @@
         <v>2693</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,43 +2272,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,25 +2317,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>55</v>
@@ -2379,10 +2370,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="D22" s="7">
-        <v>118596</v>
+        <v>98760</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>57</v>
@@ -2394,10 +2385,10 @@
         <v>59</v>
       </c>
       <c r="H22" s="7">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I22" s="7">
-        <v>98760</v>
+        <v>118596</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>60</v>
@@ -2430,10 +2421,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7">
-        <v>57742</v>
+        <v>70924</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>66</v>
@@ -2445,10 +2436,10 @@
         <v>68</v>
       </c>
       <c r="H23" s="7">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I23" s="7">
-        <v>70924</v>
+        <v>57742</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>69</v>
@@ -2484,7 +2475,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>9759</v>
+        <v>9251</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>75</v>
@@ -2499,7 +2490,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>9251</v>
+        <v>9759</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>78</v>
@@ -2538,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>84</v>
@@ -2553,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>85</v>
@@ -2568,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>86</v>
@@ -2589,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>84</v>
@@ -2604,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>85</v>
@@ -2619,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>86</v>
@@ -2634,25 +2625,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>186097</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>55</v>
@@ -2687,10 +2678,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="D28" s="7">
-        <v>201401</v>
+        <v>178419</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>87</v>
@@ -2702,10 +2693,10 @@
         <v>89</v>
       </c>
       <c r="H28" s="7">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="I28" s="7">
-        <v>178419</v>
+        <v>201401</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>90</v>
@@ -2738,10 +2729,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="7">
-        <v>95899</v>
+        <v>97663</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>96</v>
@@ -2753,10 +2744,10 @@
         <v>98</v>
       </c>
       <c r="H29" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I29" s="7">
-        <v>97663</v>
+        <v>95899</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>99</v>
@@ -2792,7 +2783,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>12278</v>
+        <v>11871</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>105</v>
@@ -2807,7 +2798,7 @@
         <v>18</v>
       </c>
       <c r="I30" s="7">
-        <v>11871</v>
+        <v>12278</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>108</v>
@@ -2840,31 +2831,31 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>2693</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H31" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>2693</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>117</v>
@@ -2882,7 +2873,7 @@
         <v>119</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2912,28 +2903,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,25 +2933,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="7">
         <v>466</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>309578</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="7">
-        <v>432</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290646</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>55</v>
@@ -2989,7 +2980,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +3000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A81C17-F45D-4B10-BFB3-A6171CA1754B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909761E4-A2B1-4623-B7A5-75BB72682484}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3026,7 +3017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3671,34 +3662,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>151</v>
+      </c>
+      <c r="D16" s="7">
+        <v>105467</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="7">
         <v>147</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>101425</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="7">
-        <v>151</v>
-      </c>
-      <c r="I16" s="7">
-        <v>105467</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>298</v>
@@ -3707,13 +3698,13 @@
         <v>206892</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,34 +3713,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>58</v>
+      </c>
+      <c r="D17" s="7">
+        <v>41168</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="7">
         <v>68</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>48381</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="7">
-        <v>58</v>
-      </c>
-      <c r="I17" s="7">
-        <v>41168</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -3758,13 +3749,13 @@
         <v>89549</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,34 +3764,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2721</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5621</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2721</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3809,13 +3800,13 @@
         <v>8342</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,34 +3815,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>609</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3860,13 +3851,13 @@
         <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,29 +3872,29 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
@@ -3911,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,25 +3917,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>55</v>
@@ -3979,10 +3970,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D22" s="7">
-        <v>113521</v>
+        <v>94404</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>156</v>
@@ -3994,19 +3985,19 @@
         <v>158</v>
       </c>
       <c r="H22" s="7">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="I22" s="7">
-        <v>94404</v>
+        <v>113521</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>299</v>
@@ -4015,13 +4006,13 @@
         <v>207925</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,34 +4021,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>90</v>
+      </c>
+      <c r="D23" s="7">
+        <v>62114</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="7">
         <v>75</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>51100</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="7">
-        <v>90</v>
-      </c>
-      <c r="I23" s="7">
-        <v>62114</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>165</v>
@@ -4066,13 +4057,13 @@
         <v>113215</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,31 +4075,31 @@
         <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>5450</v>
+        <v>5690</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>5690</v>
+        <v>5450</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4117,13 +4108,13 @@
         <v>11141</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,34 +4123,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>580</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -4168,13 +4159,13 @@
         <v>580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4204,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>185</v>
@@ -4219,13 +4210,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,25 +4225,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
         <v>251</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170651</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>162209</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>55</v>
@@ -4287,34 +4278,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>283</v>
+      </c>
+      <c r="D28" s="7">
+        <v>199871</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="7">
         <v>314</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>214946</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="7">
-        <v>283</v>
-      </c>
-      <c r="I28" s="7">
-        <v>199871</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>597</v>
@@ -4323,13 +4314,13 @@
         <v>414817</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,34 +4329,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>148</v>
+      </c>
+      <c r="D29" s="7">
+        <v>103282</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="7">
         <v>143</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>99481</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H29" s="7">
-        <v>148</v>
-      </c>
-      <c r="I29" s="7">
-        <v>103282</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -4374,13 +4365,13 @@
         <v>202763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,34 +4380,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8411</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="7">
         <v>16</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>11071</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H30" s="7">
-        <v>12</v>
-      </c>
-      <c r="I30" s="7">
-        <v>8411</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -4425,13 +4416,13 @@
         <v>19483</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,31 +4434,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -4476,13 +4467,13 @@
         <v>1189</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4512,13 +4503,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4527,13 +4518,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,25 +4533,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>444</v>
+      </c>
+      <c r="D33" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="7">
         <v>474</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>326078</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="7">
-        <v>444</v>
-      </c>
-      <c r="I33" s="7">
-        <v>312174</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>55</v>
@@ -4589,7 +4580,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4609,7 +4600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6741E921-266D-48C1-82C4-1B42899BFE9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609D46D0-8765-46A3-93FE-081491804445}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4626,7 +4617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5271,34 +5262,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>188</v>
+      </c>
+      <c r="D16" s="7">
+        <v>130746</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="7">
         <v>176</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>126225</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H16" s="7">
-        <v>188</v>
-      </c>
-      <c r="I16" s="7">
-        <v>130746</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>364</v>
@@ -5307,13 +5298,13 @@
         <v>256971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,34 +5313,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>62</v>
+      </c>
+      <c r="D17" s="7">
+        <v>44055</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="7">
         <v>64</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>45399</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="7">
-        <v>62</v>
-      </c>
-      <c r="I17" s="7">
-        <v>44054</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -5358,13 +5349,13 @@
         <v>89453</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,34 +5364,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4860</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6228</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4860</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -5409,13 +5400,13 @@
         <v>11088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,31 +5418,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>759</v>
+        <v>564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>564</v>
+        <v>759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5460,13 +5451,13 @@
         <v>1323</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5472,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5496,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5511,13 +5502,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,25 +5517,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>258</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180225</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="7">
-        <v>258</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180224</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>55</v>
@@ -5579,34 +5570,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>119</v>
+      </c>
+      <c r="D22" s="7">
+        <v>84434</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="7">
         <v>133</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>99568</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H22" s="7">
-        <v>119</v>
-      </c>
-      <c r="I22" s="7">
-        <v>84434</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>252</v>
@@ -5615,13 +5606,13 @@
         <v>184002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,34 +5621,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>91</v>
+      </c>
+      <c r="D23" s="7">
+        <v>64014</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="7">
         <v>86</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>63177</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="7">
-        <v>91</v>
-      </c>
-      <c r="I23" s="7">
-        <v>64014</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>177</v>
@@ -5666,13 +5657,13 @@
         <v>127192</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,34 +5672,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
+        <v>14949</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H24" s="7">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7">
         <v>7846</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H24" s="7">
-        <v>22</v>
-      </c>
-      <c r="I24" s="7">
-        <v>14949</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -5717,13 +5708,13 @@
         <v>22796</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,34 +5723,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -5768,13 +5759,13 @@
         <v>792</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,34 +5774,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5819,13 +5810,13 @@
         <v>617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,25 +5825,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>55</v>
@@ -5887,34 +5878,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>307</v>
+      </c>
+      <c r="D28" s="7">
+        <v>215180</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" s="7">
         <v>309</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>225793</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H28" s="7">
-        <v>307</v>
-      </c>
-      <c r="I28" s="7">
-        <v>215180</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M28" s="7">
         <v>616</v>
@@ -5923,13 +5914,13 @@
         <v>440974</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,34 +5929,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>153</v>
+      </c>
+      <c r="D29" s="7">
+        <v>108069</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29" s="7">
         <v>150</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>108576</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H29" s="7">
-        <v>153</v>
-      </c>
-      <c r="I29" s="7">
-        <v>108069</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M29" s="7">
         <v>303</v>
@@ -5974,13 +5965,13 @@
         <v>216645</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,34 +5980,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19809</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H30" s="7">
         <v>20</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>14074</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H30" s="7">
-        <v>29</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19809</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M30" s="7">
         <v>49</v>
@@ -6025,13 +6016,13 @@
         <v>33884</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,34 +6031,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1356</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H31" s="7">
         <v>1</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>759</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1356</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -6076,13 +6067,13 @@
         <v>2115</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>316</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,34 +6082,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6127,13 +6118,13 @@
         <v>617</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,25 +6133,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>492</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345032</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="7">
-        <v>492</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345032</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>55</v>
@@ -6189,7 +6180,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
